--- a/TRABAJOS PRACTICOS/TP11_TESTING/TP11_TESTING_4K2_G7.xlsx
+++ b/TRABAJOS PRACTICOS/TP11_TESTING/TP11_TESTING_4K2_G7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azult\OneDrive\Desktop\Repo ISW\ICS_4K2_2024_GRUPO7\TRABAJOS PRACTICOS\TP11_TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C809D3-BA6E-415B-A26A-032643E7BFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E730315-A144-49DA-83EF-A4BE6E96174A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="679" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clases de equivalencia" sheetId="29" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="238">
   <si>
     <t>TC_001</t>
   </si>
@@ -2037,12 +2037,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2054,27 +2075,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2909,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A543D2-0C1C-4B4E-BED7-443CF6905450}">
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2920,16 +2920,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="G2" s="109" t="s">
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="G2" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
@@ -2972,7 +2972,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -2992,169 +2992,169 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="107"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="113"/>
+      <c r="H6" s="109"/>
       <c r="I6" s="50" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="107"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="114"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="110"/>
       <c r="I7" s="51" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="114"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="51" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="112" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="114"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="51" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="104"/>
-      <c r="C10" s="106"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="114"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="110"/>
       <c r="I10" s="51" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="112" t="s">
         <v>108</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="114"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="110"/>
       <c r="I11" s="51" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="104"/>
-      <c r="C12" s="106"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="114"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="110"/>
       <c r="I12" s="51" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="112" t="s">
         <v>112</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="114"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="110"/>
       <c r="I13" s="51" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="104"/>
-      <c r="C14" s="106"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="114"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="110"/>
       <c r="I14" s="51" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="112" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="112"/>
-      <c r="H15" s="115"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="111"/>
       <c r="I15" s="52" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
-      <c r="C16" s="106"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="104" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="112" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="104"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="106"/>
+      <c r="D18" s="113"/>
     </row>
     <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
@@ -3173,10 +3173,10 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="112" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -3184,17 +3184,17 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104"/>
-      <c r="C22" s="106"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="112" t="s">
         <v>131</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -3202,17 +3202,17 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
-      <c r="C24" s="106"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="112" t="s">
         <v>135</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -3220,17 +3220,17 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="104"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="105" t="s">
+      <c r="C27" s="112" t="s">
         <v>139</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -3238,8 +3238,8 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
-      <c r="C28" s="106"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="16" t="s">
         <v>141</v>
       </c>
@@ -3256,7 +3256,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="104" t="s">
         <v>150</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -3265,39 +3265,49 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="104"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="16" t="s">
         <v>152</v>
       </c>
       <c r="D31" s="16"/>
     </row>
     <row r="32" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="104" t="s">
         <v>145</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D32" s="112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="107"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="108"/>
+      <c r="D33" s="115"/>
     </row>
     <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="104"/>
+      <c r="B34" s="105"/>
       <c r="C34" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="106"/>
+      <c r="D34" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="G6:G15"/>
@@ -3314,16 +3324,6 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3336,9 +3336,9 @@
   </sheetPr>
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4061,7 +4061,9 @@
       <c r="A21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="27" t="s">
+        <v>149</v>
+      </c>
       <c r="C21" s="27" t="s">
         <v>207</v>
       </c>
@@ -5968,14 +5970,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9EE5A02A2A6DC45B45E782DFEFDA45E" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7657f0a98c495c38e0a3edb0de0bfed3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c79c8594d4fa4c9fd200c91a62336472" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
@@ -6101,6 +6095,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
   <ds:schemaRefs>
@@ -6110,16 +6112,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1910A495-F8F1-4320-96F7-0EE9F01D3CE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6135,4 +6127,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>